--- a/Linear Regression Sederhana.xlsx
+++ b/Linear Regression Sederhana.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Informatika\Pemrograman Simulasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Informatika\Pemrograman Simulasi\regresi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD68A1A2-3869-4ED5-B8B6-E41DBBBEF336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F537452D-3A4B-46D5-A66F-35BD115848A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{503E4116-9C59-4C26-BBE1-29F6F3EC6E60}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{503E4116-9C59-4C26-BBE1-29F6F3EC6E60}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
   <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
